--- a/resources/dataframes_all_students.xlsx
+++ b/resources/dataframes_all_students.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="145">
   <si>
     <t>Total Schools</t>
   </si>
@@ -60,13 +60,13 @@
     <t>81.9</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>85.8</t>
+  </si>
+  <si>
+    <t>65.2</t>
   </si>
   <si>
     <t>School Type</t>
@@ -402,55 +402,61 @@
     <t>81.6</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>93.5</t>
+  </si>
+  <si>
+    <t>87.1</t>
+  </si>
+  <si>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>66.2</t>
+  </si>
+  <si>
+    <t>96.6</t>
+  </si>
+  <si>
+    <t>92.7</t>
+  </si>
+  <si>
+    <t>81.1</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>62.9</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>93.6</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>96.1</t>
+  </si>
+  <si>
+    <t>96.8</t>
+  </si>
+  <si>
+    <t>89.9</t>
+  </si>
+  <si>
+    <t>90.6</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>53.7</t>
   </si>
 </sst>
 </file>
@@ -2522,10 +2528,10 @@
         <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2542,7 +2548,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>134</v>
@@ -2618,7 +2624,7 @@
         <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2635,10 +2641,10 @@
         <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2655,10 +2661,10 @@
         <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2725,13 +2731,13 @@
         <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/resources/dataframes_all_students.xlsx
+++ b/resources/dataframes_all_students.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="124">
   <si>
     <t>Total Schools</t>
   </si>
@@ -394,69 +394,6 @@
   </si>
   <si>
     <t>84.6</t>
-  </si>
-  <si>
-    <t>78.5</t>
-  </si>
-  <si>
-    <t>81.6</t>
-  </si>
-  <si>
-    <t>93.5</t>
-  </si>
-  <si>
-    <t>87.1</t>
-  </si>
-  <si>
-    <t>73.5</t>
-  </si>
-  <si>
-    <t>66.2</t>
-  </si>
-  <si>
-    <t>96.6</t>
-  </si>
-  <si>
-    <t>92.7</t>
-  </si>
-  <si>
-    <t>81.1</t>
-  </si>
-  <si>
-    <t>90.4</t>
-  </si>
-  <si>
-    <t>62.9</t>
-  </si>
-  <si>
-    <t>53.5</t>
-  </si>
-  <si>
-    <t>93.6</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>96.1</t>
-  </si>
-  <si>
-    <t>96.8</t>
-  </si>
-  <si>
-    <t>89.9</t>
-  </si>
-  <si>
-    <t>90.6</t>
-  </si>
-  <si>
-    <t>58.3</t>
-  </si>
-  <si>
-    <t>66.5</t>
-  </si>
-  <si>
-    <t>53.7</t>
   </si>
 </sst>
 </file>
@@ -2498,80 +2435,80 @@
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
+      <c r="B2">
+        <v>83.45539900855027</v>
+      </c>
+      <c r="C2">
+        <v>83.93381405396646</v>
+      </c>
+      <c r="D2">
+        <v>93.46009572653237</v>
+      </c>
+      <c r="E2">
+        <v>96.61087677671375</v>
+      </c>
+      <c r="F2">
+        <v>90.36945874402643</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
+      <c r="B3">
+        <v>81.8998257021498</v>
+      </c>
+      <c r="C3">
+        <v>83.15528577020937</v>
+      </c>
+      <c r="D3">
+        <v>87.13353760737169</v>
+      </c>
+      <c r="E3">
+        <v>92.71820457965273</v>
+      </c>
+      <c r="F3">
+        <v>81.41859632428398</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
+      <c r="B4">
+        <v>78.51885454725715</v>
+      </c>
+      <c r="C4">
+        <v>81.62447331528534</v>
+      </c>
+      <c r="D4">
+        <v>73.48420890357487</v>
+      </c>
+      <c r="E4">
+        <v>84.39179284814433</v>
+      </c>
+      <c r="F4">
+        <v>62.85765555194492</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>135</v>
+      <c r="B5">
+        <v>76.99720981240274</v>
+      </c>
+      <c r="C5">
+        <v>81.02784255713441</v>
+      </c>
+      <c r="D5">
+        <v>66.16481311032456</v>
+      </c>
+      <c r="E5">
+        <v>81.13395072128019</v>
+      </c>
+      <c r="F5">
+        <v>53.5268548869691</v>
       </c>
     </row>
   </sheetData>
@@ -2611,60 +2548,60 @@
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>140</v>
+      <c r="B2">
+        <v>83.82159776422071</v>
+      </c>
+      <c r="C2">
+        <v>83.92984341754834</v>
+      </c>
+      <c r="D2">
+        <v>93.55022469776569</v>
+      </c>
+      <c r="E2">
+        <v>96.09943667320715</v>
+      </c>
+      <c r="F2">
+        <v>89.88385340844357</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" t="s">
-        <v>141</v>
+      <c r="B3">
+        <v>83.37468376981991</v>
+      </c>
+      <c r="C3">
+        <v>83.86443831725629</v>
+      </c>
+      <c r="D3">
+        <v>93.59969459404036</v>
+      </c>
+      <c r="E3">
+        <v>96.7906800028675</v>
+      </c>
+      <c r="F3">
+        <v>90.62153518649967</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" t="s">
-        <v>142</v>
+      <c r="B4">
+        <v>77.746416511437</v>
+      </c>
+      <c r="C4">
+        <v>81.34449272598371</v>
+      </c>
+      <c r="D4">
+        <v>69.96336073939453</v>
+      </c>
+      <c r="E4">
+        <v>82.7666344526415</v>
+      </c>
+      <c r="F4">
+        <v>58.28600304906789</v>
       </c>
     </row>
   </sheetData>
@@ -2704,40 +2641,40 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
+      <c r="B2">
+        <v>83.47385187384614</v>
+      </c>
+      <c r="C2">
+        <v>83.89642074222549</v>
+      </c>
+      <c r="D2">
+        <v>93.62083003509466</v>
+      </c>
+      <c r="E2">
+        <v>96.58648927302872</v>
+      </c>
+      <c r="F2">
+        <v>90.43224369343227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" t="s">
-        <v>144</v>
+      <c r="B3">
+        <v>76.95673306832398</v>
+      </c>
+      <c r="C3">
+        <v>80.96663632734915</v>
+      </c>
+      <c r="D3">
+        <v>66.54845257144746</v>
+      </c>
+      <c r="E3">
+        <v>80.79906211395057</v>
+      </c>
+      <c r="F3">
+        <v>53.67220822778149</v>
       </c>
     </row>
   </sheetData>
